--- a/src/test/resources/org/bbreak/excella/reports/tag/BlockColRepeatParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/BlockColRepeatParamParserTest_expected.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="10" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,15 @@
     <sheet name="Sheet20" sheetId="22" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="24" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="26" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="28" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="198">
   <si>
     <t>$BC[]{BC1,fromCell=1:0,toCell=3:2}</t>
     <phoneticPr fontId="2"/>
@@ -675,6 +677,18 @@
   </si>
   <si>
     <t>$R[]{B}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BC[]{BC1,fromCell=1:0,toCell=3:2,minRepeatNum=2}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$BC[]{BC1,fromCell=1:0,toCell=3:2,minRepeatNum=3}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -930,6 +944,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,9 +957,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2451,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2533,13 +2547,13 @@
     </row>
     <row r="10" spans="1:30">
       <c r="C10" s="15"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="24"/>
+      <c r="P10" s="25"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -2553,19 +2567,19 @@
       <c r="D11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="27"/>
+      <c r="K11" s="26" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="21"/>
@@ -2575,23 +2589,23 @@
       <c r="P11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="25" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="25" t="s">
+      <c r="T11" s="27"/>
+      <c r="U11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="25" t="s">
+      <c r="V11" s="27"/>
+      <c r="W11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="25" t="s">
+      <c r="X11" s="27"/>
+      <c r="Y11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="Z11" s="21"/>
@@ -2603,13 +2617,13 @@
     </row>
     <row r="12" spans="1:30">
       <c r="C12" s="15"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="24"/>
+      <c r="P12" s="25"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -2633,8 +2647,8 @@
       <c r="B14" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:30">
       <c r="D15" s="23" t="s">
@@ -2645,8 +2659,8 @@
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="D16" s="28"/>
-      <c r="P16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="3:30">
       <c r="D17" s="15"/>
@@ -2656,7 +2670,7 @@
     </row>
     <row r="18" spans="3:30">
       <c r="D18" s="15"/>
-      <c r="P18" s="28"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="3:30">
       <c r="P19" s="15"/>
@@ -2697,6 +2711,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="P13:P14"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="D11:D12"/>
@@ -2705,20 +2729,10 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2775,7 +2789,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2808,7 +2822,7 @@
       <c r="B4" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>194</v>
       </c>
       <c r="D4" s="2"/>
@@ -2816,7 +2830,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2"/>
-      <c r="C5" s="28"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -2832,7 +2846,230 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="H5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="H8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="K5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="K6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="K7" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="K8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="K9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
